--- a/Kịch bản 2.xlsx
+++ b/Kịch bản 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Study\Techfest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04CB9B-0D50-43F7-86FC-575ABCE9DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA0371D-1578-46A9-9717-D9E3D788A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,32 +531,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,7 +548,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,14 +559,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -815,7 +815,7 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K15" sqref="K15:K18"/>
     </sheetView>
   </sheetViews>
@@ -833,13 +833,13 @@
     <row r="1" spans="1:11" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -875,27 +875,27 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
@@ -911,37 +911,37 @@
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -953,23 +953,23 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="16"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="32" t="s">
         <v>70</v>
       </c>
@@ -984,8 +984,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1007,27 +1007,27 @@
       <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="31" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1043,33 +1043,33 @@
       <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="11" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -1085,53 +1085,53 @@
       <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="29" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="32" t="s">
         <v>80</v>
       </c>
@@ -1144,8 +1144,8 @@
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
@@ -1167,23 +1167,23 @@
       <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" ht="78" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="7" t="s">
         <v>42</v>
       </c>
@@ -1205,29 +1205,29 @@
       <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
+      <c r="J19" s="29"/>
+      <c r="K19" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="7" t="s">
         <v>48</v>
       </c>
@@ -1241,29 +1241,29 @@
       <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
         <v>52</v>
@@ -1271,30 +1271,30 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -1319,18 +1319,33 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C1:G1"/>
@@ -1347,26 +1362,11 @@
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1385,6 +1385,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ED85448727394BBFD9213D0E519E11" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97f6f9b3a05045bbf888e6fe181096c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b48da744-99d0-481d-bbbf-1ea6e8001212" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2cffaa04ee223a98fd401e2a9a4e70d" ns2:_="">
     <xsd:import namespace="b48da744-99d0-481d-bbbf-1ea6e8001212"/>
@@ -1516,22 +1531,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{679A5884-9A5A-4059-9616-45989B6F0766}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8EEE95D-D623-4699-B678-525306162CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE3389E5-049B-437F-90E3-2E2A3CF01B96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1547,21 +1564,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8EEE95D-D623-4699-B678-525306162CF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{679A5884-9A5A-4059-9616-45989B6F0766}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>